--- a/resources/meta/统计.xlsx
+++ b/resources/meta/统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="24880" windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -35,28 +35,28 @@
     <t>房间号</t>
   </si>
   <si>
+    <t>鱼塘-八方来财</t>
+  </si>
+  <si>
+    <t>热搜-明月江灯</t>
+  </si>
+  <si>
+    <t>热搜-白月轻纱</t>
+  </si>
+  <si>
+    <t>热搜-养心殿</t>
+  </si>
+  <si>
+    <t>热搜-风起云舒</t>
+  </si>
+  <si>
+    <t>热搜-娱乐圈</t>
+  </si>
+  <si>
+    <t>热搜-星河入梦</t>
+  </si>
+  <si>
     <t>热搜-坠落梦境</t>
-  </si>
-  <si>
-    <t>热搜-明月江灯</t>
-  </si>
-  <si>
-    <t>热搜-白月轻纱</t>
-  </si>
-  <si>
-    <t>热搜-养心殿</t>
-  </si>
-  <si>
-    <t>热搜-风起云舒</t>
-  </si>
-  <si>
-    <t>热搜-娱乐圈</t>
-  </si>
-  <si>
-    <t>热搜-星河入梦</t>
-  </si>
-  <si>
-    <t>鱼塘-八方来财</t>
   </si>
   <si>
     <t>鱼塘-天降神豪</t>
@@ -1413,7 +1413,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="2"/>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>999003</v>
+        <v>13168</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1495,9 +1495,8 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>13168</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>999003</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
       <c r="A10" s="2" t="s">
